--- a/biology/Zoologie/Calumma_cucullatum/Calumma_cucullatum.xlsx
+++ b/biology/Zoologie/Calumma_cucullatum/Calumma_cucullatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Calumma cucullatum est une espèce de sauriens de la famille des Chamaeleonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calumma cucullatum est une espèce de sauriens de la famille des Chamaeleonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Nord-Est de Madagascar[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Nord-Est de Madagascar.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Gray, 1831 "1830" : A synopsis of the species of Class Reptilia. The animal kingdom arranged in conformity with its organisation by the Baron Cuvier with additional descriptions of all the species hither named, and of many before noticed, V Whittaker, Treacher and Co., London, vol. 9, Supplement, p. 1-110 (texte intégral).</t>
         </is>
